--- a/data/isco_benchmark_data.xlsx
+++ b/data/isco_benchmark_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NDATA12\mindej$\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\oc3i-tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96A357-02F8-4B23-8E40-B9B43A334309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F099CD3-7CB0-4942-81BD-D4C5DEF75C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E58A9F-BCBE-4D56-9288-7EA88B5DC174}"/>
+    <workbookView xWindow="3885" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{34E58A9F-BCBE-4D56-9288-7EA88B5DC174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
   <si>
     <t>Kapana seller</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>working on fishing boat offshore</t>
+  </si>
+  <si>
+    <t>Should be easy but requires semantic understanding (ie "car" not in scheme for correct class, "car" vs "vehicle")</t>
+  </si>
+  <si>
+    <t>Potential confusion with 9216, Fishery labourers</t>
   </si>
 </sst>
 </file>
@@ -1070,9 +1076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B5227C-BBB8-4170-9114-EB39DE1F3A8A}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2395,6 +2401,9 @@
       <c r="B68" t="s">
         <v>169</v>
       </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
       <c r="E68">
         <v>6210</v>
       </c>
@@ -2588,9 +2597,6 @@
       <c r="E79">
         <v>7544</v>
       </c>
-      <c r="F79" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -2605,9 +2611,6 @@
       <c r="E80">
         <v>7544</v>
       </c>
-      <c r="F80" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -2639,6 +2642,9 @@
       <c r="E82">
         <v>7231</v>
       </c>
+      <c r="G82" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -2702,7 +2708,10 @@
         <v>205</v>
       </c>
       <c r="E86">
-        <v>9216</v>
+        <v>6223</v>
+      </c>
+      <c r="G86" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
